--- a/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
+++ b/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
@@ -6,9 +6,143 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable_rename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip_sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facet1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facet2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index_variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissions / Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_wm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fives_proj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP-NEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USREP-ReEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy / GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP / Capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -334,10 +468,4477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="NA" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.92021124167678</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.829066130758544</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.724494381939907</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.688958836438545</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.663518089301478</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.635663330382773</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.942156375005028</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.787654973938909</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.709439039639237</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.665217650737935</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.639865815140367</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.61446120710963</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.945757261340402</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>11</v>
+      </c>
+      <c r="X17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.79345312283835</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.694454333702353</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>11</v>
+      </c>
+      <c r="X19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.728333238520014</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.954203409373333</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.861068342883757</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.769138760585053</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>11</v>
+      </c>
+      <c r="X24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.690224481959865</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>11</v>
+      </c>
+      <c r="X25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.630764966787653</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.583494153737664</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>11</v>
+      </c>
+      <c r="X27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.889209149416891</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.775562360961573</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.702034407776516</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.646010266808981</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>11</v>
+      </c>
+      <c r="X32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>11</v>
+      </c>
+      <c r="X33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.09019624590985</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>11</v>
+      </c>
+      <c r="X34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.17138441230404</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.25285342948435</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>11</v>
+      </c>
+      <c r="X36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.35858282828126</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.48672380686579</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s">
+        <v>7</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>11</v>
+      </c>
+      <c r="X38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.62909388731049</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>11</v>
+      </c>
+      <c r="X39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>11</v>
+      </c>
+      <c r="X40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.06759769219304</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.13252452445257</v>
+      </c>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s">
+        <v>7</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.20907246743962</v>
+      </c>
+      <c r="I43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s">
+        <v>7</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>11</v>
+      </c>
+      <c r="X43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.30607704410502</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s">
+        <v>7</v>
+      </c>
+      <c r="U44" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>11</v>
+      </c>
+      <c r="X44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.01801713308318</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" t="s">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s">
+        <v>7</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.04343324227783</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s">
+        <v>7</v>
+      </c>
+      <c r="U47" t="s">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.0673083860446</v>
+      </c>
+      <c r="I48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s">
+        <v>7</v>
+      </c>
+      <c r="U48" t="s">
+        <v>1</v>
+      </c>
+      <c r="V48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>11</v>
+      </c>
+      <c r="X48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.08741610851946</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U49" t="s">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>11</v>
+      </c>
+      <c r="X49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.10484341985125</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s">
+        <v>7</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>11</v>
+      </c>
+      <c r="X50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.12104840918039</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s">
+        <v>7</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>11</v>
+      </c>
+      <c r="X51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52" t="s">
+        <v>36</v>
+      </c>
+      <c r="S52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s">
+        <v>7</v>
+      </c>
+      <c r="U52" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>11</v>
+      </c>
+      <c r="X52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.03800000001336</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s">
+        <v>7</v>
+      </c>
+      <c r="U53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>11</v>
+      </c>
+      <c r="X53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.07700000005346</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s">
+        <v>7</v>
+      </c>
+      <c r="U54" t="s">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>11</v>
+      </c>
+      <c r="X54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.10899999990645</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s">
+        <v>7</v>
+      </c>
+      <c r="U55" t="s">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>11</v>
+      </c>
+      <c r="X55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.14100000009355</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S56" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s">
+        <v>7</v>
+      </c>
+      <c r="U56" t="s">
+        <v>1</v>
+      </c>
+      <c r="V56" t="s">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>11</v>
+      </c>
+      <c r="X56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s">
+        <v>7</v>
+      </c>
+      <c r="U57" t="s">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>11</v>
+      </c>
+      <c r="X57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.20799999987972</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s">
+        <v>7</v>
+      </c>
+      <c r="U58" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>11</v>
+      </c>
+      <c r="X58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
+++ b/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
@@ -649,7 +649,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0.92021124167678</v>
+        <v>0.920074549504109</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>0.829066130758544</v>
+        <v>0.836916896849876</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>0.724494381939907</v>
+        <v>0.715590148720136</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -880,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>0.688958836438545</v>
+        <v>0.673803377052232</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -957,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>0.663518089301478</v>
+        <v>0.641817455423127</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -1034,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>0.635663330382773</v>
+        <v>0.609759775284346</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -1727,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>0.945757261340402</v>
+        <v>0.956103744595993</v>
       </c>
       <c r="I17" t="s">
         <v>31</v>
@@ -1804,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>0.79345312283835</v>
+        <v>0.795261142559048</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
@@ -1881,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>0.694454333702353</v>
+        <v>0.704866420963724</v>
       </c>
       <c r="I19" t="s">
         <v>31</v>
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>0.728333238520014</v>
+        <v>0.738515320908862</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -2112,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>0.954203409373333</v>
+        <v>0.919120707365382</v>
       </c>
       <c r="I22" t="s">
         <v>31</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2189,7 +2189,7 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>0.861068342883757</v>
+        <v>0.821080530499551</v>
       </c>
       <c r="I23" t="s">
         <v>31</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2266,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>0.769138760585053</v>
+        <v>0.738988166459925</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2343,7 +2343,7 @@
         <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>0.690224481959865</v>
+        <v>0.686165934057616</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2420,7 +2420,7 @@
         <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>0.630764966787653</v>
+        <v>0.651582522231899</v>
       </c>
       <c r="I26" t="s">
         <v>31</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2497,7 +2497,7 @@
         <v>30</v>
       </c>
       <c r="H27" t="n">
-        <v>0.583494153737664</v>
+        <v>0.624900709685797</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2651,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>0.889209149416891</v>
+        <v>0.954203409373333</v>
       </c>
       <c r="I29" t="s">
         <v>31</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2728,7 +2728,7 @@
         <v>30</v>
       </c>
       <c r="H30" t="n">
-        <v>0.775562360961573</v>
+        <v>0.861068342883757</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2805,7 +2805,7 @@
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>0.702034407776516</v>
+        <v>0.769138760585053</v>
       </c>
       <c r="I31" t="s">
         <v>31</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -2882,7 +2882,7 @@
         <v>30</v>
       </c>
       <c r="H32" t="n">
-        <v>0.646010266808981</v>
+        <v>0.690224481959865</v>
       </c>
       <c r="I32" t="s">
         <v>31</v>
@@ -2947,19 +2947,19 @@
         <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.630764966787653</v>
       </c>
       <c r="I33" t="s">
         <v>31</v>
@@ -2971,7 +2971,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3024,19 +3024,19 @@
         <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
       </c>
       <c r="H34" t="n">
-        <v>1.09019624590985</v>
+        <v>0.583494153737664</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
@@ -3048,7 +3048,7 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -3101,19 +3101,19 @@
         <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
       </c>
       <c r="H35" t="n">
-        <v>1.17138441230404</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>31</v>
@@ -3125,7 +3125,7 @@
         <v>32</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -3178,19 +3178,19 @@
         <v>27</v>
       </c>
       <c r="D36" t="n">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
       </c>
       <c r="H36" t="n">
-        <v>1.25285342948435</v>
+        <v>0.903391240145501</v>
       </c>
       <c r="I36" t="s">
         <v>31</v>
@@ -3202,7 +3202,7 @@
         <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -3255,19 +3255,19 @@
         <v>27</v>
       </c>
       <c r="D37" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>1.35858282828126</v>
+        <v>0.792455553012244</v>
       </c>
       <c r="I37" t="s">
         <v>31</v>
@@ -3279,7 +3279,7 @@
         <v>32</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3332,19 +3332,19 @@
         <v>27</v>
       </c>
       <c r="D38" t="n">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
       </c>
       <c r="H38" t="n">
-        <v>1.48672380686579</v>
+        <v>0.713904208130203</v>
       </c>
       <c r="I38" t="s">
         <v>31</v>
@@ -3356,7 +3356,7 @@
         <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3409,19 +3409,19 @@
         <v>27</v>
       </c>
       <c r="D39" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
       </c>
       <c r="H39" t="n">
-        <v>1.62909388731049</v>
+        <v>0.649844103751652</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
@@ -3433,7 +3433,7 @@
         <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -3575,7 +3575,7 @@
         <v>30</v>
       </c>
       <c r="H41" t="n">
-        <v>1.06759769219304</v>
+        <v>1.07011197598923</v>
       </c>
       <c r="I41" t="s">
         <v>31</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -3652,7 +3652,7 @@
         <v>30</v>
       </c>
       <c r="H42" t="n">
-        <v>1.13252452445257</v>
+        <v>1.14672453109697</v>
       </c>
       <c r="I42" t="s">
         <v>31</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -3729,7 +3729,7 @@
         <v>30</v>
       </c>
       <c r="H43" t="n">
-        <v>1.20907246743962</v>
+        <v>1.2131146282423</v>
       </c>
       <c r="I43" t="s">
         <v>31</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -3806,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="H44" t="n">
-        <v>1.30607704410502</v>
+        <v>1.27622825468776</v>
       </c>
       <c r="I44" t="s">
         <v>31</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -3871,19 +3871,19 @@
         <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>1.33559983498701</v>
       </c>
       <c r="I45" t="s">
         <v>31</v>
@@ -3895,7 +3895,7 @@
         <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -3948,19 +3948,19 @@
         <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
       </c>
       <c r="H46" t="n">
-        <v>1.01801713308318</v>
+        <v>1.38849089379446</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
@@ -3972,7 +3972,7 @@
         <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>27</v>
       </c>
       <c r="D47" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
       </c>
       <c r="H47" t="n">
-        <v>1.04343324227783</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>31</v>
@@ -4049,7 +4049,7 @@
         <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4102,19 +4102,19 @@
         <v>27</v>
       </c>
       <c r="D48" t="n">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0673083860446</v>
+        <v>1.09019624590985</v>
       </c>
       <c r="I48" t="s">
         <v>31</v>
@@ -4126,7 +4126,7 @@
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4179,19 +4179,19 @@
         <v>27</v>
       </c>
       <c r="D49" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>1.08741610851946</v>
+        <v>1.17138441230404</v>
       </c>
       <c r="I49" t="s">
         <v>31</v>
@@ -4203,7 +4203,7 @@
         <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4256,19 +4256,19 @@
         <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>1.10484341985125</v>
+        <v>1.25285342948435</v>
       </c>
       <c r="I50" t="s">
         <v>31</v>
@@ -4280,7 +4280,7 @@
         <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4333,19 +4333,19 @@
         <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
       </c>
       <c r="H51" t="n">
-        <v>1.12104840918039</v>
+        <v>1.35858282828126</v>
       </c>
       <c r="I51" t="s">
         <v>31</v>
@@ -4357,7 +4357,7 @@
         <v>32</v>
       </c>
       <c r="L51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -4410,19 +4410,19 @@
         <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>30</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>1.48672380686579</v>
       </c>
       <c r="I52" t="s">
         <v>31</v>
@@ -4434,7 +4434,7 @@
         <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -4487,19 +4487,19 @@
         <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="E53" t="s">
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
       </c>
       <c r="H53" t="n">
-        <v>1.03800000001336</v>
+        <v>1.62909388731049</v>
       </c>
       <c r="I53" t="s">
         <v>31</v>
@@ -4511,7 +4511,7 @@
         <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4564,19 +4564,19 @@
         <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
       </c>
       <c r="H54" t="n">
-        <v>1.07700000005346</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
         <v>31</v>
@@ -4588,7 +4588,7 @@
         <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4641,19 +4641,19 @@
         <v>27</v>
       </c>
       <c r="D55" t="n">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>1.10899999990645</v>
+        <v>1.07855884461091</v>
       </c>
       <c r="I55" t="s">
         <v>31</v>
@@ -4665,7 +4665,7 @@
         <v>32</v>
       </c>
       <c r="L55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4718,19 +4718,19 @@
         <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
       </c>
       <c r="H56" t="n">
-        <v>1.14100000009355</v>
+        <v>1.15613059977622</v>
       </c>
       <c r="I56" t="s">
         <v>31</v>
@@ -4742,7 +4742,7 @@
         <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4795,19 +4795,19 @@
         <v>27</v>
       </c>
       <c r="D57" t="n">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E57" t="s">
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
       </c>
       <c r="H57" t="n">
-        <v>1.175</v>
+        <v>1.24817872482203</v>
       </c>
       <c r="I57" t="s">
         <v>31</v>
@@ -4819,7 +4819,7 @@
         <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4872,69 +4872,1532 @@
         <v>27</v>
       </c>
       <c r="D58" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.36329584325345</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s">
+        <v>7</v>
+      </c>
+      <c r="U58" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>11</v>
+      </c>
+      <c r="X58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" t="s">
+        <v>36</v>
+      </c>
+      <c r="S59" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s">
+        <v>7</v>
+      </c>
+      <c r="U59" t="s">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.01904503281285</v>
+      </c>
+      <c r="I60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>26</v>
+      </c>
+      <c r="R60" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>11</v>
+      </c>
+      <c r="X60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.04448668627895</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>26</v>
+      </c>
+      <c r="R61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61" t="s">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s">
+        <v>7</v>
+      </c>
+      <c r="U61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>11</v>
+      </c>
+      <c r="X61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.0683865127857</v>
+      </c>
+      <c r="I62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" t="s">
+        <v>36</v>
+      </c>
+      <c r="S62" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s">
+        <v>7</v>
+      </c>
+      <c r="U62" t="s">
+        <v>1</v>
+      </c>
+      <c r="V62" t="s">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>11</v>
+      </c>
+      <c r="X62" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.08851474692615</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R63" t="s">
+        <v>36</v>
+      </c>
+      <c r="S63" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s">
+        <v>7</v>
+      </c>
+      <c r="U63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V63" t="s">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>11</v>
+      </c>
+      <c r="X63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.1059576073018</v>
+      </c>
+      <c r="I64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>26</v>
+      </c>
+      <c r="R64" t="s">
+        <v>36</v>
+      </c>
+      <c r="S64" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s">
+        <v>7</v>
+      </c>
+      <c r="U64" t="s">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>11</v>
+      </c>
+      <c r="X64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="n">
         <v>2050</v>
       </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
         <v>42</v>
       </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.20799999987972</v>
-      </c>
-      <c r="I58" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.12218148902467</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" t="s">
         <v>42</v>
       </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" t="s">
-        <v>34</v>
-      </c>
-      <c r="P58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>26</v>
-      </c>
-      <c r="R58" t="s">
-        <v>36</v>
-      </c>
-      <c r="S58" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" t="s">
-        <v>7</v>
-      </c>
-      <c r="U58" t="s">
-        <v>1</v>
-      </c>
-      <c r="V58" t="s">
-        <v>0</v>
-      </c>
-      <c r="W58" t="s">
-        <v>11</v>
-      </c>
-      <c r="X58" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y58" t="s">
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65" t="s">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s">
+        <v>7</v>
+      </c>
+      <c r="U65" t="s">
+        <v>1</v>
+      </c>
+      <c r="V65" t="s">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>11</v>
+      </c>
+      <c r="X65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>33</v>
+      </c>
+      <c r="O66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66" t="s">
+        <v>36</v>
+      </c>
+      <c r="S66" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s">
+        <v>7</v>
+      </c>
+      <c r="U66" t="s">
+        <v>1</v>
+      </c>
+      <c r="V66" t="s">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>11</v>
+      </c>
+      <c r="X66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.01801713308318</v>
+      </c>
+      <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>26</v>
+      </c>
+      <c r="R67" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67" t="s">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s">
+        <v>7</v>
+      </c>
+      <c r="U67" t="s">
+        <v>1</v>
+      </c>
+      <c r="V67" t="s">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>11</v>
+      </c>
+      <c r="X67" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.04343324227783</v>
+      </c>
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>26</v>
+      </c>
+      <c r="R68" t="s">
+        <v>36</v>
+      </c>
+      <c r="S68" t="s">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s">
+        <v>7</v>
+      </c>
+      <c r="U68" t="s">
+        <v>1</v>
+      </c>
+      <c r="V68" t="s">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>11</v>
+      </c>
+      <c r="X68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.0673083860446</v>
+      </c>
+      <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69" t="s">
+        <v>36</v>
+      </c>
+      <c r="S69" t="s">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s">
+        <v>7</v>
+      </c>
+      <c r="U69" t="s">
+        <v>1</v>
+      </c>
+      <c r="V69" t="s">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>11</v>
+      </c>
+      <c r="X69" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.08741610851946</v>
+      </c>
+      <c r="I70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>26</v>
+      </c>
+      <c r="R70" t="s">
+        <v>36</v>
+      </c>
+      <c r="S70" t="s">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s">
+        <v>7</v>
+      </c>
+      <c r="U70" t="s">
+        <v>1</v>
+      </c>
+      <c r="V70" t="s">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>11</v>
+      </c>
+      <c r="X70" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.10484341985125</v>
+      </c>
+      <c r="I71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>26</v>
+      </c>
+      <c r="R71" t="s">
+        <v>36</v>
+      </c>
+      <c r="S71" t="s">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s">
+        <v>7</v>
+      </c>
+      <c r="U71" t="s">
+        <v>1</v>
+      </c>
+      <c r="V71" t="s">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>11</v>
+      </c>
+      <c r="X71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.12104840918039</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" t="s">
+        <v>36</v>
+      </c>
+      <c r="S72" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U72" t="s">
+        <v>1</v>
+      </c>
+      <c r="V72" t="s">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>11</v>
+      </c>
+      <c r="X72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>26</v>
+      </c>
+      <c r="R73" t="s">
+        <v>36</v>
+      </c>
+      <c r="S73" t="s">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s">
+        <v>7</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1</v>
+      </c>
+      <c r="V73" t="s">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>11</v>
+      </c>
+      <c r="X73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.02752545388687</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>33</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>26</v>
+      </c>
+      <c r="R74" t="s">
+        <v>36</v>
+      </c>
+      <c r="S74" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s">
+        <v>7</v>
+      </c>
+      <c r="U74" t="s">
+        <v>1</v>
+      </c>
+      <c r="V74" t="s">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>11</v>
+      </c>
+      <c r="X74" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.05505090777373</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" t="s">
+        <v>36</v>
+      </c>
+      <c r="S75" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s">
+        <v>7</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1</v>
+      </c>
+      <c r="V75" t="s">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>11</v>
+      </c>
+      <c r="X75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.07405472965862</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>33</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" t="s">
+        <v>36</v>
+      </c>
+      <c r="S76" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s">
+        <v>7</v>
+      </c>
+      <c r="U76" t="s">
+        <v>1</v>
+      </c>
+      <c r="V76" t="s">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>11</v>
+      </c>
+      <c r="X76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.09305855154352</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" t="s">
+        <v>42</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>33</v>
+      </c>
+      <c r="O77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>26</v>
+      </c>
+      <c r="R77" t="s">
+        <v>36</v>
+      </c>
+      <c r="S77" t="s">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s">
+        <v>7</v>
+      </c>
+      <c r="U77" t="s">
+        <v>1</v>
+      </c>
+      <c r="V77" t="s">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>11</v>
+      </c>
+      <c r="X77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y77" t="s">
         <v>37</v>
       </c>
     </row>

--- a/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
+++ b/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
@@ -1727,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>0.956103744595993</v>
+        <v>0.960344558842567</v>
       </c>
       <c r="I17" t="s">
         <v>31</v>
@@ -1804,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>0.795261142559048</v>
+        <v>0.804704155139907</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
@@ -1881,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>0.704866420963724</v>
+        <v>0.710810827573204</v>
       </c>
       <c r="I19" t="s">
         <v>31</v>
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>0.738515320908862</v>
+        <v>0.739402215009442</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
@@ -3190,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="H36" t="n">
-        <v>0.903391240145501</v>
+        <v>0.91736802789193</v>
       </c>
       <c r="I36" t="s">
         <v>31</v>
@@ -3267,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>0.792455553012244</v>
+        <v>0.81404809379225</v>
       </c>
       <c r="I37" t="s">
         <v>31</v>
@@ -3344,7 +3344,7 @@
         <v>30</v>
       </c>
       <c r="H38" t="n">
-        <v>0.713904208130203</v>
+        <v>0.728634756935695</v>
       </c>
       <c r="I38" t="s">
         <v>31</v>
@@ -3421,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="H39" t="n">
-        <v>0.649844103751652</v>
+        <v>0.662540186023418</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
@@ -4653,7 +4653,7 @@
         <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>1.07855884461091</v>
+        <v>1.07946664464802</v>
       </c>
       <c r="I55" t="s">
         <v>31</v>
@@ -4730,7 +4730,7 @@
         <v>30</v>
       </c>
       <c r="H56" t="n">
-        <v>1.15613059977622</v>
+        <v>1.15784769140339</v>
       </c>
       <c r="I56" t="s">
         <v>31</v>
@@ -4807,7 +4807,7 @@
         <v>30</v>
       </c>
       <c r="H57" t="n">
-        <v>1.24817872482203</v>
+        <v>1.24959181468698</v>
       </c>
       <c r="I57" t="s">
         <v>31</v>
@@ -4884,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="H58" t="n">
-        <v>1.36329584325345</v>
+        <v>1.36371151675016</v>
       </c>
       <c r="I58" t="s">
         <v>31</v>

--- a/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
+++ b/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
@@ -1727,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>0.960344558842567</v>
+        <v>0.958963086885244</v>
       </c>
       <c r="I17" t="s">
         <v>31</v>
@@ -1804,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>0.804704155139907</v>
+        <v>0.80794698133112</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
@@ -1881,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>0.710810827573204</v>
+        <v>0.719477201773377</v>
       </c>
       <c r="I19" t="s">
         <v>31</v>
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>0.739402215009442</v>
+        <v>0.746187551396714</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
@@ -3190,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="H36" t="n">
-        <v>0.91736802789193</v>
+        <v>0.932176704090686</v>
       </c>
       <c r="I36" t="s">
         <v>31</v>
@@ -3267,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>0.81404809379225</v>
+        <v>0.835388512448575</v>
       </c>
       <c r="I37" t="s">
         <v>31</v>
@@ -3344,7 +3344,7 @@
         <v>30</v>
       </c>
       <c r="H38" t="n">
-        <v>0.728634756935695</v>
+        <v>0.752799032135054</v>
       </c>
       <c r="I38" t="s">
         <v>31</v>
@@ -3421,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="H39" t="n">
-        <v>0.662540186023418</v>
+        <v>0.686125122851701</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
@@ -4653,7 +4653,7 @@
         <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>1.07946664464802</v>
+        <v>1.07960136828709</v>
       </c>
       <c r="I55" t="s">
         <v>31</v>
@@ -4730,7 +4730,7 @@
         <v>30</v>
       </c>
       <c r="H56" t="n">
-        <v>1.15784769140339</v>
+        <v>1.15794790080151</v>
       </c>
       <c r="I56" t="s">
         <v>31</v>
@@ -4807,7 +4807,7 @@
         <v>30</v>
       </c>
       <c r="H57" t="n">
-        <v>1.24959181468698</v>
+        <v>1.24975524033703</v>
       </c>
       <c r="I57" t="s">
         <v>31</v>
@@ -4884,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="H58" t="n">
-        <v>1.36371151675016</v>
+        <v>1.36406326095034</v>
       </c>
       <c r="I58" t="s">
         <v>31</v>

--- a/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
+++ b/output/2024_BTR1/results_overview/exploratory_figures/Kaya/Kaya_time_series.xlsx
@@ -649,7 +649,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0.920074549504109</v>
+        <v>0.914988631147843</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>0.836916896849876</v>
+        <v>0.830031002987163</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>0.715590148720136</v>
+        <v>0.705090238547419</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -880,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>0.673803377052232</v>
+        <v>0.653608309603125</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -957,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>0.641817455423127</v>
+        <v>0.620056671174464</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -1034,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>0.609759775284346</v>
+        <v>0.588583475259163</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -2112,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>0.919120707365382</v>
+        <v>0.907688452772833</v>
       </c>
       <c r="I22" t="s">
         <v>31</v>
@@ -2189,7 +2189,7 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>0.821080530499551</v>
+        <v>0.813988537150649</v>
       </c>
       <c r="I23" t="s">
         <v>31</v>
@@ -2266,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>0.738988166459925</v>
+        <v>0.729455374922834</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
@@ -2343,7 +2343,7 @@
         <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>0.686165934057616</v>
+        <v>0.663205750558229</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -2420,7 +2420,7 @@
         <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>0.651582522231899</v>
+        <v>0.610040559820731</v>
       </c>
       <c r="I26" t="s">
         <v>31</v>
@@ -2497,7 +2497,7 @@
         <v>30</v>
       </c>
       <c r="H27" t="n">
-        <v>0.624900709685797</v>
+        <v>0.563978550459534</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
@@ -3575,7 +3575,7 @@
         <v>30</v>
       </c>
       <c r="H41" t="n">
-        <v>1.07011197598923</v>
+        <v>1.09365559751448</v>
       </c>
       <c r="I41" t="s">
         <v>31</v>
@@ -3652,7 +3652,7 @@
         <v>30</v>
       </c>
       <c r="H42" t="n">
-        <v>1.14672453109697</v>
+        <v>1.17065672748771</v>
       </c>
       <c r="I42" t="s">
         <v>31</v>
@@ -3729,7 +3729,7 @@
         <v>30</v>
       </c>
       <c r="H43" t="n">
-        <v>1.2131146282423</v>
+        <v>1.25278161913721</v>
       </c>
       <c r="I43" t="s">
         <v>31</v>
@@ -3806,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="H44" t="n">
-        <v>1.27622825468776</v>
+        <v>1.36195551219943</v>
       </c>
       <c r="I44" t="s">
         <v>31</v>
@@ -3883,7 +3883,7 @@
         <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>1.33559983498701</v>
+        <v>1.48766457878611</v>
       </c>
       <c r="I45" t="s">
         <v>31</v>
@@ -3960,7 +3960,7 @@
         <v>30</v>
       </c>
       <c r="H46" t="n">
-        <v>1.38849089379446</v>
+        <v>1.62551810699457</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
@@ -5038,7 +5038,7 @@
         <v>30</v>
       </c>
       <c r="H60" t="n">
-        <v>1.01904503281285</v>
+        <v>1.01867312529785</v>
       </c>
       <c r="I60" t="s">
         <v>31</v>
@@ -5115,7 +5115,7 @@
         <v>30</v>
       </c>
       <c r="H61" t="n">
-        <v>1.04448668627895</v>
+        <v>1.04410549365699</v>
       </c>
       <c r="I61" t="s">
         <v>31</v>
@@ -5192,7 +5192,7 @@
         <v>30</v>
       </c>
       <c r="H62" t="n">
-        <v>1.0683865127857</v>
+        <v>1.06799659775717</v>
       </c>
       <c r="I62" t="s">
         <v>31</v>
@@ -5269,7 +5269,7 @@
         <v>30</v>
       </c>
       <c r="H63" t="n">
-        <v>1.08851474692615</v>
+        <v>1.08811748595972</v>
       </c>
       <c r="I63" t="s">
         <v>31</v>
@@ -5346,7 +5346,7 @@
         <v>30</v>
       </c>
       <c r="H64" t="n">
-        <v>1.1059576073018</v>
+        <v>1.10555398044314</v>
       </c>
       <c r="I64" t="s">
         <v>31</v>
@@ -5423,7 +5423,7 @@
         <v>30</v>
       </c>
       <c r="H65" t="n">
-        <v>1.12218148902467</v>
+        <v>1.12177194114844</v>
       </c>
       <c r="I65" t="s">
         <v>31</v>
